--- a/Excel/Client_UnitConfig.xlsx
+++ b/Excel/Client_UnitConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DBB476-E0D1-4646-812F-0A209E11288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66564D2-0C92-4263-B985-EA15CD22DC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6820" yWindow="4500" windowWidth="28800" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -15,20 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#UnitId表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AppType.ClientM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnitName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +90,10 @@
   </si>
   <si>
     <t>Darius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,96 +506,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="C3:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="3:11" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="4" spans="3:11" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
@@ -624,15 +609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>10001</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4">
         <v>10001</v>

--- a/Excel/Client_UnitConfig.xlsx
+++ b/Excel/Client_UnitConfig.xlsx
@@ -1,118 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66564D2-0C92-4263-B985-EA15CD22DC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="4500" windowWidth="28800" windowHeight="15470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27075" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>#UnitId表</t>
+  </si>
+  <si>
+    <t>Unit名称</t>
+  </si>
+  <si>
+    <t>Unit属性Id</t>
+  </si>
+  <si>
+    <t>Unit被动技能Id</t>
+  </si>
+  <si>
+    <t>UnitQ技能Id</t>
+  </si>
+  <si>
+    <t>UnitW技能Id</t>
+  </si>
+  <si>
+    <t>UnitE技能Id</t>
+  </si>
+  <si>
+    <t>UnitR技能Id</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>UnitAttributesDataId</t>
+  </si>
+  <si>
+    <t>UnitPassiveSkillId</t>
+  </si>
+  <si>
+    <t>UnitQSkillId</t>
+  </si>
+  <si>
+    <t>UnitWSkillId</t>
+  </si>
+  <si>
+    <t>UnitESkillId</t>
+  </si>
+  <si>
+    <t>UnitRSkillId</t>
+  </si>
+  <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#UnitId表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>德莱厄斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit属性Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitAttributesDataId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit被动技能Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitQ技能Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitPassiveSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitQSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitWSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitW技能Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitE技能Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitESkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitR技能Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitRSkillId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Darius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +98,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -128,11 +105,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +272,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -154,32 +467,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -228,7 +827,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +860,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,23 +895,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,147 +1065,149 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.0916666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.725" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.0916666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.3666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.2666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.3666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.2666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.45" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.45" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:11">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:11">
+      <c r="C6" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
-        <v>10001</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="4">
         <v>10001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>10001</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>10002</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>10003</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>10004</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>10005</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>